--- a/Graficas Simulacion.xlsx
+++ b/Graficas Simulacion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Simpy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeqv2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39928597-2330-46A6-B4F5-A212695CC024}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos Normales" sheetId="2" r:id="rId1"/>
@@ -19,6 +20,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>Tabla 1. Numero de procesos vs tiempo promedio (Intervalos de 1, memoria de 200)</t>
   </si>
@@ -58,12 +60,21 @@
   <si>
     <t>Tabla 3. Numero de procesos vs tiempo promedio (Intervalos de 10)</t>
   </si>
+  <si>
+    <t>Tabla 1. Numero de procesos vs tiempo promedio (Intervalos de 1, dos procesadores)</t>
+  </si>
+  <si>
+    <t>Tabla 2. Numero de procesos vs tiempo promedio (Intervalos de 5, dos procesadores)</t>
+  </si>
+  <si>
+    <t>Tabla 2. Numero de procesos vs tiempo promedio (Intervalos de 10, dos procesadores)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +90,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF33CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,8 +268,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -263,49 +331,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +420,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -389,7 +445,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -454,7 +510,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -480,7 +535,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="es-GT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -619,7 +674,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -645,7 +699,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -683,7 +737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506685120"/>
@@ -737,7 +791,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -763,7 +816,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -801,7 +854,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506684792"/>
@@ -842,7 +895,1660 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Numero de procesos vs tiempo promedio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]2 Procecsadores'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]2 Procecsadores'!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]2 Procecsadores'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6F59-4F39-8093-B423ED52CEDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506684792"/>
+        <c:axId val="506685120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506684792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Cantidad de procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506685120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506685120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506684792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]2 Procecsadores'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]2 Procecsadores'!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]2 Procecsadores'!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75BE-42CF-A43F-1C115B6E7F86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="489653520"/>
+        <c:axId val="489651880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="489653520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Cantidad de procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489651880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489651880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489653520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Numero de procesos vs tiempo promedio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]2 Procecsadores'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]2 Procecsadores'!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]2 Procecsadores'!$K$5:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-40C5-4A0E-BFBD-5140DBFD38CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506684792"/>
+        <c:axId val="506685120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506684792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Cantidad de procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506685120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506685120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506684792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="sng"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -893,7 +2599,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -919,7 +2624,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -932,17 +2637,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Tiempos normales'!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tiempo Promedio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -995,7 +2689,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1021,7 +2714,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="es-GT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1076,6 +2769,27 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Tiempos normales'!$I$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Tiempo Promedio</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-62DB-4682-A492-F43F459BE615}"/>
             </c:ext>
@@ -1139,7 +2853,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1165,7 +2878,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1203,7 +2916,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506685120"/>
@@ -1257,7 +2970,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1283,7 +2995,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1321,7 +3033,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506684792"/>
@@ -1362,7 +3074,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1413,7 +3125,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1439,7 +3150,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1452,17 +3163,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Tiempos normales'!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tiempo Promedio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1515,7 +3215,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1541,7 +3240,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="es-GT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1596,6 +3295,27 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Tiempos normales'!$M$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Tiempo Promedio</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-16F7-43A6-933F-3599183B384D}"/>
             </c:ext>
@@ -1659,7 +3379,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1685,7 +3404,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1723,7 +3442,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506685120"/>
@@ -1777,7 +3496,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1803,7 +3521,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1841,7 +3559,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506684792"/>
@@ -1882,7 +3600,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1933,7 +3651,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1959,7 +3676,1585 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Memoria200!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Memoria200!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.034999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Memoria200!$C$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Tiempo Promedio</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F59-433B-AB0F-D7123B01ECAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506684792"/>
+        <c:axId val="506685120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506684792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Cantidad de procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506685120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506685120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506684792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Numero de procesos vs tiempo promedio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Memoria200!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Memoria200!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Memoria200!$I$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Tiempo Promedio</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8563-4AB0-8A06-16BCB9D97104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506684792"/>
+        <c:axId val="506685120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506684792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Cantidad de procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506685120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506685120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506684792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Numero de procesos vs tiempo promedio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Memoria200!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Memoria200!$P$5:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>265.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Memoria200!$I$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Tiempo Promedio</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A793-4C6C-B815-F38522268738}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506684792"/>
+        <c:axId val="506685120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506684792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Cantidad de procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506685120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506685120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506684792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Numero de procesos vs tiempo promedio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2035,7 +5330,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2061,7 +5355,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="es-GT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2117,7 +5411,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F59-433B-AB0F-D7123B01ECAC}"/>
+              <c16:uniqueId val="{00000002-37B9-4588-97C0-DCB0F06A3215}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2179,7 +5473,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2205,7 +5498,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2243,7 +5536,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506685120"/>
@@ -2297,7 +5590,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2323,7 +5615,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2361,7 +5653,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506684792"/>
@@ -2402,7 +5694,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2413,7 +5705,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2453,7 +5745,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2479,7 +5770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2555,7 +5846,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2581,7 +5871,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="es-GT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2637,7 +5927,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8563-4AB0-8A06-16BCB9D97104}"/>
+              <c16:uniqueId val="{00000002-1A94-4E56-B797-EFEF74B3CB30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2699,7 +5989,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2725,7 +6014,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2763,7 +6052,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506685120"/>
@@ -2817,7 +6106,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2843,7 +6131,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2881,7 +6169,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506684792"/>
@@ -2922,7 +6210,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2933,7 +6221,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2973,7 +6261,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2999,7 +6286,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3075,7 +6362,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3101,7 +6387,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="es-GT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3157,7 +6443,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A793-4C6C-B815-F38522268738}"/>
+              <c16:uniqueId val="{00000002-0DCB-42A6-AECE-F89A9D0908DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3219,7 +6505,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3245,7 +6530,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3283,7 +6568,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506685120"/>
@@ -3337,7 +6622,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3363,7 +6647,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3401,7 +6685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506684792"/>
@@ -3442,7 +6726,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3460,6 +6744,117 @@
   <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -3684,6 +7079,117 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4200,7 +7706,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4716,7 +8222,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5232,7 +8738,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5748,7 +9254,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6264,7 +9770,3103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7018,6 +13620,244 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CE9EBE-2147-4506-963B-D7E553712130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1021D0D8-30D9-4C3E-A21D-83EDCCE14611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472439</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1795E7-BA30-47AC-ADE1-85BAC2946EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C29ED8-61E5-4BB9-9E82-7AFA5E9D095F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E84E7EB-1546-4AC1-B510-39BF5C5F22E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266A32AD-2516-40AF-98BC-C7BBE0950B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7028,117 +13868,8 @@
       <sheetName val="2 Procecsadores"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="I5" t="str">
-            <v>Tiempo Promedio</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>Tiempo Promedio</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>25</v>
-          </cell>
-          <cell r="C6">
-            <v>15.8</v>
-          </cell>
-          <cell r="H6">
-            <v>25</v>
-          </cell>
-          <cell r="I6">
-            <v>41.36</v>
-          </cell>
-          <cell r="L6">
-            <v>25</v>
-          </cell>
-          <cell r="M6">
-            <v>36.72</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>50</v>
-          </cell>
-          <cell r="C7">
-            <v>22.62</v>
-          </cell>
-          <cell r="H7">
-            <v>50</v>
-          </cell>
-          <cell r="I7">
-            <v>72.400000000000006</v>
-          </cell>
-          <cell r="L7">
-            <v>50</v>
-          </cell>
-          <cell r="M7">
-            <v>66.38</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>100</v>
-          </cell>
-          <cell r="C8">
-            <v>35.51</v>
-          </cell>
-          <cell r="H8">
-            <v>100</v>
-          </cell>
-          <cell r="I8">
-            <v>120.64</v>
-          </cell>
-          <cell r="L8">
-            <v>100</v>
-          </cell>
-          <cell r="M8">
-            <v>118.71</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>150</v>
-          </cell>
-          <cell r="C9">
-            <v>54.91</v>
-          </cell>
-          <cell r="H9">
-            <v>150</v>
-          </cell>
-          <cell r="I9">
-            <v>176.73</v>
-          </cell>
-          <cell r="L9">
-            <v>150</v>
-          </cell>
-          <cell r="M9">
-            <v>173.47</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>200</v>
-          </cell>
-          <cell r="C10">
-            <v>71.444999999999993</v>
-          </cell>
-          <cell r="H10">
-            <v>200</v>
-          </cell>
-          <cell r="I10">
-            <v>221.86</v>
-          </cell>
-          <cell r="L10">
-            <v>200</v>
-          </cell>
-          <cell r="M10">
-            <v>232.05</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="C4" t="str">
@@ -7219,7 +13950,114 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Tiempo Promedio</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>Tiempo Promedio</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>25</v>
+          </cell>
+          <cell r="C5">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="F5">
+            <v>25</v>
+          </cell>
+          <cell r="G5">
+            <v>2.38</v>
+          </cell>
+          <cell r="K5">
+            <v>2.56</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>50</v>
+          </cell>
+          <cell r="C6">
+            <v>2.44</v>
+          </cell>
+          <cell r="F6">
+            <v>50</v>
+          </cell>
+          <cell r="G6">
+            <v>2.5</v>
+          </cell>
+          <cell r="K6">
+            <v>2.98</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>100</v>
+          </cell>
+          <cell r="C7">
+            <v>2.88</v>
+          </cell>
+          <cell r="F7">
+            <v>100</v>
+          </cell>
+          <cell r="G7">
+            <v>2.72</v>
+          </cell>
+          <cell r="K7">
+            <v>3.4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>150</v>
+          </cell>
+          <cell r="C8">
+            <v>3.02</v>
+          </cell>
+          <cell r="F8">
+            <v>150</v>
+          </cell>
+          <cell r="G8">
+            <v>3.12</v>
+          </cell>
+          <cell r="K8">
+            <v>3.92</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>200</v>
+          </cell>
+          <cell r="C9">
+            <v>3.62</v>
+          </cell>
+          <cell r="F9">
+            <v>200</v>
+          </cell>
+          <cell r="G9">
+            <v>4.05</v>
+          </cell>
+          <cell r="K9">
+            <v>4.62</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tiempos normales"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7487,10 +14325,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7509,271 +14347,271 @@
   <sheetData>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="L3" s="13" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="L3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
+      <c r="B6" s="3">
         <v>25</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="3">
         <v>15.8</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="3">
         <v>8.7100000000000009</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="3">
         <v>25</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="3">
         <v>41.36</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="3">
         <v>20.05</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="3">
         <v>25</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="3">
         <v>36.72</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+      <c r="B7" s="4">
         <v>50</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="4">
         <v>22.62</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>13.07</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="4">
         <v>50</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="4">
         <v>72.400000000000006</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="4">
         <v>32.979999999999997</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="4">
         <v>50</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="4">
         <v>66.38</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="4">
         <v>34.44</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+      <c r="B8" s="4">
         <v>100</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="4">
         <v>35.51</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="4">
         <v>23.13</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="4">
         <v>100</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="4">
         <v>120.64</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="4">
         <v>57.92</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="4">
         <v>100</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="4">
         <v>118.71</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="4">
         <v>62.46</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+      <c r="B9" s="4">
         <v>150</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="4">
         <v>54.91</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="4">
         <v>35.39</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="4">
         <v>150</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="4">
         <v>176.73</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="4">
         <v>9.43</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="4">
         <v>150</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="4">
         <v>173.47</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="4">
         <v>93.13</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+      <c r="B10" s="4">
         <v>200</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="4">
         <v>71.444999999999993</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="4">
         <v>43.43</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="4">
         <v>200</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="4">
         <v>221.86</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="4">
         <v>116.7</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="4">
         <v>200</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="4">
         <v>232.05</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="4">
         <v>130.33600000000001</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7789,7 +14627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7811,204 +14649,204 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="O2" s="1" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="O2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
+      <c r="B5" s="3">
         <v>25</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="3">
         <v>15.8</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="3">
         <v>8.7100000000000009</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="3">
         <v>25</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="3">
         <v>41.36</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="3">
         <v>20.05</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="3">
         <v>25</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="3">
         <v>36.72</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="B6" s="4">
         <v>50</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="4">
         <v>22.62</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>13.07</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="4">
         <v>50</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="4">
         <v>82.5</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="4">
         <v>40.58</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="4">
         <v>50</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="4">
         <v>58.44</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="4">
         <v>37.92</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+      <c r="B7" s="4">
         <v>100</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="4">
         <v>34.01</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>21.6</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="4">
         <v>100</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="4">
         <v>144.93</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="4">
         <v>74.08</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="4">
         <v>100</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="4">
         <v>105.15</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="4">
         <v>66.989999999999995</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+      <c r="B8" s="4">
         <v>150</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="4">
         <v>51.36</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="4">
         <v>36.85</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="4">
         <v>150</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="4">
         <v>204</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="4">
         <v>106.54</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="4">
         <v>150</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="4">
         <v>162.99</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+      <c r="B9" s="4">
         <v>200</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="4">
         <v>75.034999999999997</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="4">
         <v>55.5</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="4">
         <v>200</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="4">
         <v>271.5</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="4">
         <v>141.93</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="4">
         <v>200</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="4">
         <v>265.17</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="4">
         <v>136.62</v>
       </c>
     </row>
@@ -8024,29 +14862,493 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="F1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="J1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
+        <v>25</v>
+      </c>
+      <c r="B4" s="26">
+        <v>15.8</v>
+      </c>
+      <c r="C4" s="26">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F4" s="26">
+        <v>25</v>
+      </c>
+      <c r="G4" s="26">
+        <v>41.36</v>
+      </c>
+      <c r="H4" s="26">
+        <v>20.05</v>
+      </c>
+      <c r="J4" s="26">
+        <v>25</v>
+      </c>
+      <c r="K4" s="26">
+        <v>36.72</v>
+      </c>
+      <c r="L4" s="26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
+        <v>50</v>
+      </c>
+      <c r="B5" s="27">
+        <v>22.62</v>
+      </c>
+      <c r="C5" s="27">
+        <v>13.07</v>
+      </c>
+      <c r="F5" s="27">
+        <v>50</v>
+      </c>
+      <c r="G5" s="27">
+        <v>82.5</v>
+      </c>
+      <c r="H5" s="27">
+        <v>40.58</v>
+      </c>
+      <c r="J5" s="27">
+        <v>50</v>
+      </c>
+      <c r="K5" s="27">
+        <v>58.44</v>
+      </c>
+      <c r="L5" s="27">
+        <v>37.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
+        <v>100</v>
+      </c>
+      <c r="B6" s="27">
+        <v>34.01</v>
+      </c>
+      <c r="C6" s="27">
+        <v>21.6</v>
+      </c>
+      <c r="F6" s="27">
+        <v>100</v>
+      </c>
+      <c r="G6" s="27">
+        <v>144.93</v>
+      </c>
+      <c r="H6" s="27">
+        <v>74.08</v>
+      </c>
+      <c r="J6" s="27">
+        <v>100</v>
+      </c>
+      <c r="K6" s="27">
+        <v>105.15</v>
+      </c>
+      <c r="L6" s="27">
+        <v>66.989999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>150</v>
+      </c>
+      <c r="B7" s="27">
+        <v>51.36</v>
+      </c>
+      <c r="C7" s="27">
+        <v>36.85</v>
+      </c>
+      <c r="F7" s="27">
+        <v>150</v>
+      </c>
+      <c r="G7" s="27">
+        <v>204</v>
+      </c>
+      <c r="H7" s="27">
+        <v>106.54</v>
+      </c>
+      <c r="J7" s="27">
+        <v>150</v>
+      </c>
+      <c r="K7" s="27">
+        <v>162.99</v>
+      </c>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
+        <v>200</v>
+      </c>
+      <c r="B8" s="27">
+        <v>75.034999999999997</v>
+      </c>
+      <c r="C8" s="27">
+        <v>55.5</v>
+      </c>
+      <c r="F8" s="27">
+        <v>200</v>
+      </c>
+      <c r="G8" s="27">
+        <v>271.5</v>
+      </c>
+      <c r="H8" s="27">
+        <v>141.93</v>
+      </c>
+      <c r="J8" s="27">
+        <v>200</v>
+      </c>
+      <c r="K8" s="27">
+        <v>265.17</v>
+      </c>
+      <c r="L8" s="27">
+        <v>136.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="J1:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
+        <v>25</v>
+      </c>
+      <c r="B4" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="26">
+        <v>25</v>
+      </c>
+      <c r="F4" s="26">
+        <v>2.38</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1.06</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="26">
+        <v>25</v>
+      </c>
+      <c r="J4" s="26">
+        <v>2.56</v>
+      </c>
+      <c r="K4" s="26">
+        <v>1.47</v>
+      </c>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
+        <v>50</v>
+      </c>
+      <c r="B5" s="27">
+        <v>2.44</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.87</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="27">
+        <v>50</v>
+      </c>
+      <c r="F5" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="27">
+        <v>50</v>
+      </c>
+      <c r="J5" s="27">
+        <v>2.98</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1.59</v>
+      </c>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
+        <v>100</v>
+      </c>
+      <c r="B6" s="27">
+        <v>2.88</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.97</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="27">
+        <v>100</v>
+      </c>
+      <c r="F6" s="27">
+        <v>2.72</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1.35</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="27">
+        <v>100</v>
+      </c>
+      <c r="J6" s="27">
+        <v>3.4</v>
+      </c>
+      <c r="K6" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>150</v>
+      </c>
+      <c r="B7" s="27">
+        <v>3.02</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="27">
+        <v>150</v>
+      </c>
+      <c r="F7" s="27">
+        <v>3.12</v>
+      </c>
+      <c r="G7" s="27">
+        <v>1.22</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="27">
+        <v>150</v>
+      </c>
+      <c r="J7" s="27">
+        <v>3.92</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1.81</v>
+      </c>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
+        <v>200</v>
+      </c>
+      <c r="B8" s="27">
+        <v>3.62</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.91</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="27">
+        <v>200</v>
+      </c>
+      <c r="F8" s="27">
+        <v>4.05</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="27">
+        <v>200</v>
+      </c>
+      <c r="J8" s="27">
+        <v>4.62</v>
+      </c>
+      <c r="K8" s="27">
+        <v>1.73</v>
+      </c>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>